--- a/semester3/physics/lab 1.01/data.xlsx
+++ b/semester3/physics/lab 1.01/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITMO\semester3\physics\lab 1.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553FA63-9739-417A-B517-C9AF86BDC268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBCA788-687F-41F6-8EB4-A98FE7AB0A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9759224-6FB3-442A-8AE2-9A86D82DE78D}"/>
+    <workbookView xWindow="5220" yWindow="1260" windowWidth="12300" windowHeight="8976" xr2:uid="{D9759224-6FB3-442A-8AE2-9A86D82DE78D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -205,6 +205,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,21 +228,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -375,7 +381,7 @@
             <c:numRef>
               <c:f>Лист1!$J$60:$J$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.6982248520710068E-2</c:v>
@@ -486,7 +492,7 @@
             <c:numRef>
               <c:f>(Лист1!$L$60,Лист1!$L$62,Лист1!$L$64,Лист1!$L$66,Лист1!$L$68,Лист1!$L$70,Лист1!$L$72)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.58120180550678435</c:v>
@@ -730,7 +736,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -834,7 +840,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1892,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D413FBD3-E42C-453C-B7F7-682F7126A0CD}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2875,23 +2881,23 @@
         <f>A59</f>
         <v>1.34</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="7">
         <f>F60</f>
         <v>1.34</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="13">
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H60,B1:B52, "&lt;="&amp;H61)</f>
         <v>7</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="16">
         <f>I60/(52*$C$62)</f>
         <v>3.6982248520710068E-2</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="15">
         <f>(H60+H61)/2</f>
         <v>1.375</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="16">
         <f xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K60-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>0.58120180550678435</v>
       </c>
@@ -2913,14 +2919,14 @@
         <f>F60+$C$61</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="8">
         <f>F61</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="15"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="17"/>
       <c r="M61">
         <v>1</v>
       </c>
@@ -2939,7 +2945,7 @@
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;$O61, $B$1:$B$52, "&lt;="&amp;$P61)</f>
         <v>33</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="5">
         <f>Q61/52</f>
         <v>0.63461538461538458</v>
       </c>
@@ -2957,23 +2963,23 @@
         <f t="shared" ref="F62:F66" si="2">F61+$C$61</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="7">
         <f>F61</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="9">
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H62,B1:B52, "&lt;="&amp;H63)</f>
         <v>7</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="17">
         <f>I62/(52*$C$62)</f>
         <v>3.6982248520710068E-2</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="11">
         <f>(H62+H63)/2</f>
         <v>1.4450000000000003</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="17">
         <f xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K62-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>1.7673656960699256</v>
       </c>
@@ -2995,7 +3001,7 @@
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;$O62, $B$1:$B$52, "&lt;="&amp;$P62)</f>
         <v>45</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="5">
         <f>Q62/52</f>
         <v>0.86538461538461542</v>
       </c>
@@ -3006,14 +3012,14 @@
         <f t="shared" si="2"/>
         <v>1.5500000000000003</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="8">
         <f>F62</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="15"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="17"/>
       <c r="M63">
         <v>3</v>
       </c>
@@ -3032,7 +3038,7 @@
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;$O63, $B$1:$B$52, "&lt;="&amp;$P63)</f>
         <v>52</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="5">
         <f>Q63/52</f>
         <v>1</v>
       </c>
@@ -3046,23 +3052,23 @@
         <f t="shared" si="2"/>
         <v>1.6200000000000003</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="7">
         <f>F62</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="9">
         <f t="shared" ref="I64" si="5">COUNTIFS($B$1:$B$52, "&gt;="&amp;H64,B3:B54, "&lt;="&amp;H65)</f>
         <v>18</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="17">
         <f t="shared" ref="J64" si="6">I64/(52*$C$62)</f>
         <v>9.5097210481825886E-2</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="11">
         <f>(H64+H65)/2</f>
         <v>1.5150000000000001</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="17">
         <f t="shared" ref="L64" si="7" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K64-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>3.3361444323866944</v>
       </c>
@@ -3073,14 +3079,14 @@
         <f t="shared" si="2"/>
         <v>1.6900000000000004</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="8">
         <f>F63</f>
         <v>1.5500000000000003</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="15"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="17"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
@@ -3088,23 +3094,23 @@
         <f t="shared" si="2"/>
         <v>1.7600000000000005</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="7">
         <f>F63</f>
         <v>1.5500000000000003</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="9">
         <f t="shared" ref="I66" si="8">COUNTIFS($B$1:$B$52, "&gt;="&amp;H66,B5:B56, "&lt;="&amp;H67)</f>
         <v>17</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="17">
         <f t="shared" ref="J66" si="9">I66/(52*$C$62)</f>
         <v>8.9814032121724438E-2</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="11">
         <f>(H66+H67)/2</f>
         <v>1.5850000000000004</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="17">
         <f t="shared" ref="L66" si="10" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K66-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>3.909148999761344</v>
       </c>
@@ -3115,125 +3121,143 @@
         <f>A60</f>
         <v>1.83</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="8">
         <f>F64</f>
         <v>1.6200000000000003</v>
       </c>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="15"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="17"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="H68" s="12">
+      <c r="H68" s="7">
         <f>F64</f>
         <v>1.6200000000000003</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="9">
         <f t="shared" ref="I68" si="11">COUNTIFS($B$1:$B$52, "&gt;="&amp;H68,B7:B58, "&lt;="&amp;H69)</f>
         <v>18</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="17">
         <f t="shared" ref="J68" si="12">I68/(52*$C$62)</f>
         <v>9.5097210481825886E-2</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="11">
         <f t="shared" ref="K68" si="13">(H68+H69)/2</f>
         <v>1.6550000000000002</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="17">
         <f t="shared" ref="L68" si="14" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K68-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>2.8434039383406597</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
-      <c r="H69" s="14">
+      <c r="H69" s="8">
         <f>F65</f>
         <v>1.6900000000000004</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="15"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="17"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="H70" s="12">
+      <c r="H70" s="7">
         <f>F65</f>
         <v>1.6900000000000004</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="9">
         <f t="shared" ref="I70" si="15">COUNTIFS($B$1:$B$52, "&gt;="&amp;H70,B9:B60, "&lt;="&amp;H71)</f>
         <v>5</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="17">
         <f t="shared" ref="J70" si="16">I70/(52*$C$62)</f>
         <v>2.6415891800507189E-2</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="11">
         <f t="shared" ref="K70" si="17">(H70+H71)/2</f>
         <v>1.7250000000000005</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L70" s="17">
         <f t="shared" ref="L70" si="18" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K70-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>1.2838487238011496</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
-      <c r="H71" s="14">
+      <c r="H71" s="8">
         <f>F66</f>
         <v>1.7600000000000005</v>
       </c>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="15"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="17"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="H72" s="12">
+      <c r="B72">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C72">
+        <v>0.01</v>
+      </c>
+      <c r="H72" s="7">
         <f>F66</f>
         <v>1.7600000000000005</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="9">
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H72,B1:B52, "&lt;="&amp;H73)</f>
         <v>3</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="17">
         <f>I72/(52*$C$62)</f>
         <v>1.5849535080304313E-2</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="11">
         <f>(H72+H73)/2</f>
         <v>1.7950000000000004</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="17">
         <f t="shared" ref="L72" si="19" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K72-$A$54)^2/(2*$C$54*$C$54)))</f>
         <v>0.35983889420544762</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
-      <c r="H73" s="14">
+      <c r="H73" s="8">
         <f>F67</f>
         <v>1.83</v>
       </c>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="16"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="18"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
+      <c r="B75">
+        <f>SQRT(B72*B72+2/3*2/3*C72*C72)</f>
+        <v>3.4647430560496753E-2</v>
+      </c>
+      <c r="C75">
+        <f>B75/B76*100</f>
+        <v>2.202256923537258</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
+      <c r="B76" s="5">
+        <f>A54</f>
+        <v>1.5732692307692311</v>
+      </c>
       <c r="J76">
         <f>SUM(J60:J73)</f>
         <v>0.39623837700760783</v>
@@ -3244,6 +3268,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="K72:K73"/>
@@ -3256,22 +3296,6 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="K70:K71"/>
     <mergeCell ref="L70:L71"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/semester3/physics/lab 1.01/data.xlsx
+++ b/semester3/physics/lab 1.01/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ITMO\semester3\physics\lab 1.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBCA788-687F-41F6-8EB4-A98FE7AB0A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3159AB5B-7CF5-4ED8-A135-F1055EB195F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1260" windowWidth="12300" windowHeight="8976" xr2:uid="{D9759224-6FB3-442A-8AE2-9A86D82DE78D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9759224-6FB3-442A-8AE2-9A86D82DE78D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -197,35 +197,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -234,7 +218,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,25 +383,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.6982248520710068E-2</c:v>
+                  <c:v>1.3736263736263739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6982248520710068E-2</c:v>
+                  <c:v>1.6483516483516485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5097210481825886E-2</c:v>
+                  <c:v>2.197802197802198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9814032121724438E-2</c:v>
+                  <c:v>2.4725274725274726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5097210481825886E-2</c:v>
+                  <c:v>4.9450549450549453</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6415891800507189E-2</c:v>
+                  <c:v>0.82417582417582425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5849535080304313E-2</c:v>
+                  <c:v>0.5494505494505495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,25 +494,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.58120180550678435</c:v>
+                  <c:v>0.83847254795016601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7673656960699256</c:v>
+                  <c:v>1.8756574455303077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3361444323866944</c:v>
+                  <c:v>2.9710029015386974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.909148999761344</c:v>
+                  <c:v>3.3322494112921013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8434039383406597</c:v>
+                  <c:v>2.646407978718007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2838487238011496</c:v>
+                  <c:v>1.488198861451429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35983889420544762</c:v>
+                  <c:v>0.59258412394809812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,6 +774,7 @@
         <c:axId val="1670283552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -960,6 +960,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -967,7 +968,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1600,9 +1600,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1640,7 +1640,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1746,7 +1746,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1888,7 +1888,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D413FBD3-E42C-453C-B7F7-682F7126A0CD}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,641 +1913,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>1.51</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <f>B1-$A$54</f>
         <v>-6.3269230769231077E-2</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <f>C1*C1</f>
         <v>4.0029955621302162E-3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1.37</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f t="shared" ref="C2:C52" si="0">B2-$A$54</f>
         <v>-0.20326923076923098</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:D52" si="1">C2*C2</f>
         <v>4.131838017751488E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.66</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f t="shared" si="0"/>
         <v>8.6730769230768834E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="1"/>
         <v>7.5222263313608779E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1.74</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>0.1667307692307689</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>2.7799149408283916E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.64</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>6.6730769230768816E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>4.4529955621301224E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1.37</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>-0.20326923076923098</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>4.131838017751488E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.35</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>-0.223269230769231</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>4.9849149408284124E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1.44</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>-0.13326923076923114</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>1.7760687869822583E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1.7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0.12673076923076887</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>1.6060687869822395E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1.68</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>0.10673076923076885</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>1.1391457100591635E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1.49</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>-8.3269230769231095E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>6.9337647928994625E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1.55</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>-2.3269230769231042E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>5.414571005917287E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1.41</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>-0.16326923076923117</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>2.6656841715976463E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1.51</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>-6.3269230769231077E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>4.0029955621302162E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1.59</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>1.6730769230768994E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>2.799186390532465E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1.65</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>7.6730769230768825E-2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>5.8876109467454994E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1.5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>-7.3269230769231086E-2</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>5.3683801775148395E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1.63</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>5.6730769230768807E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>3.2183801775147449E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1.41</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>-0.16326923076923117</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>2.6656841715976463E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1.65</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>7.6730769230768825E-2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>5.8876109467454994E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1.42</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>-0.15326923076923116</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>2.3491457100591834E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1.44</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>-0.13326923076923114</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
         <v>1.7760687869822583E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1.66</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>8.6730769230768834E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="1"/>
         <v>7.5222263313608779E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1.58</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>6.7307692307689848E-3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="1"/>
         <v>4.5303254437866511E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>1.55</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>-2.3269230769231042E-2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="1"/>
         <v>5.414571005917287E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1.67</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>9.6730769230768843E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
         <v>9.3568417159762569E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1.52</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>-5.3269230769231068E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="1"/>
         <v>2.8376109467455942E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1.43</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>-0.14326923076923115</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="1"/>
         <v>2.0526072485207211E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1.59</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>1.6730769230768994E-2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="1"/>
         <v>2.799186390532465E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1.37</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>-0.20326923076923098</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
         <v>4.131838017751488E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1.83</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>0.25673076923076898</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="1"/>
         <v>6.5910687869822362E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1.66</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>8.6730769230768834E-2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="1"/>
         <v>7.5222263313608779E-3</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>1.63</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>5.6730769230768807E-2</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
         <v>3.2183801775147449E-3</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>1.56</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>-1.3269230769231033E-2</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="1"/>
         <v>1.7607248520710758E-4</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>1.55</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>-2.3269230769231042E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="1"/>
         <v>5.414571005917287E-4</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>1.53</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>-4.326923076923106E-2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="1"/>
         <v>1.8722263313609719E-3</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1.67</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>9.6730769230768843E-2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="1"/>
         <v>9.3568417159762569E-3</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>1.76</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>0.18673076923076892</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="1"/>
         <v>3.4868380177514681E-2</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>1.69</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>0.11673076923076886</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="1"/>
         <v>1.3626072485207015E-2</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>1.54</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>-3.3269230769231051E-2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
         <v>1.1068417159763502E-3</v>
       </c>
@@ -2559,17 +2559,17 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>1.65</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>7.6730769230768825E-2</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
         <v>5.8876109467454994E-3</v>
       </c>
@@ -2581,17 +2581,17 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>1.48</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>-9.3269230769231104E-2</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
         <v>8.6991494082840869E-3</v>
       </c>
@@ -2603,17 +2603,17 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>1.67</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>9.6730769230768843E-2</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="1"/>
         <v>9.3568417159762569E-3</v>
       </c>
@@ -2625,17 +2625,17 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>1.59</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>1.6730769230768994E-2</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="1"/>
         <v>2.799186390532465E-4</v>
       </c>
@@ -2647,17 +2647,17 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>1.56</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>-1.3269230769231033E-2</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="1"/>
         <v>1.7607248520710758E-4</v>
       </c>
@@ -2669,17 +2669,17 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>1.63</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>5.6730769230768807E-2</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
         <v>3.2183801775147449E-3</v>
       </c>
@@ -2691,141 +2691,140 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1.68</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>0.10673076923076885</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="1"/>
         <v>1.1391457100591635E-2</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>1.79</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>0.21673076923076895</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="1"/>
         <v>4.6972226331360827E-2</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>1.67</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>9.6730769230768843E-2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
         <v>9.3568417159762569E-3</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>1.34</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>-0.23326923076923101</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="1"/>
         <v>5.4414534023668748E-2</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>1.62</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>4.673076923076902E-2</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f t="shared" si="1"/>
         <v>2.1837647928993884E-3</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>1.63</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>5.6730769230768807E-2</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <f t="shared" si="1"/>
         <v>3.2183801775147449E-3</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <f>AVERAGE(B1:B52)</f>
         <v>1.5732692307692311</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <f>SUM(C1:C52)</f>
         <v>-1.7097434579227411E-14</v>
       </c>
-      <c r="C54" s="5">
-        <f>SQRT(F54*F54 / 51)</f>
-        <v>0.10137246882931311</v>
+      <c r="C54" s="4">
+        <f>SQRT(F54 / 51)</f>
+        <v>0.11914270819921687</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <f>SUM(D1:D52)</f>
         <v>0.72394423076923065</v>
       </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <f>1/(C54*SQRT(PI() * 2))</f>
-        <v>3.9354105213039219</v>
+        <v>3.3484405922212788</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -2835,10 +2834,10 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2"/>
       <c r="E57">
         <f>SQRT(F54*F54 / (51*50))</f>
         <v>1.4336232026965844E-2</v>
@@ -2849,10 +2848,10 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <f>MIN(B1:B52)</f>
         <v>1.34</v>
       </c>
@@ -2873,38 +2872,38 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <f>MAX(B1:B52)</f>
         <v>1.83</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f>A59</f>
         <v>1.34</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <f>F60</f>
         <v>1.34</v>
       </c>
-      <c r="I60" s="13">
-        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H60,B1:B52, "&lt;="&amp;H61)</f>
-        <v>7</v>
-      </c>
-      <c r="J60" s="16">
-        <f>I60/(52*$C$62)</f>
-        <v>3.6982248520710068E-2</v>
-      </c>
-      <c r="K60" s="15">
+      <c r="I60" s="8">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H60,$B$1:$B$52, "&lt;"&amp;H61)</f>
+        <v>5</v>
+      </c>
+      <c r="J60" s="10">
+        <f>I60/($C$62)</f>
+        <v>1.3736263736263739</v>
+      </c>
+      <c r="K60" s="12">
         <f>(H60+H61)/2</f>
         <v>1.375</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L60" s="10">
         <f xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K60-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>0.58120180550678435</v>
+        <v>0.83847254795016601</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2">
         <f>A60-A59</f>
         <v>0.49</v>
       </c>
@@ -2915,43 +2914,43 @@
       <c r="D61" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f>F60+$C$61</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="7">
         <f>F61</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="17"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="11"/>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61" t="s">
         <v>0</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="2">
         <f>$A$54-M61*$C$54</f>
-        <v>1.4718967619399179</v>
-      </c>
-      <c r="P61" s="3">
+        <v>1.4541265225700142</v>
+      </c>
+      <c r="P61" s="2">
         <f>$A$54+M61*$C$54</f>
-        <v>1.6746416995985443</v>
+        <v>1.692411938968448</v>
       </c>
       <c r="Q61">
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;$O61, $B$1:$B$52, "&lt;="&amp;$P61)</f>
-        <v>33</v>
-      </c>
-      <c r="R61" s="5">
+        <v>36</v>
+      </c>
+      <c r="R61" s="4">
         <f>Q61/52</f>
-        <v>0.63461538461538458</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
+      <c r="A62" s="2"/>
       <c r="C62">
         <f>52*C61</f>
         <v>3.6399999999999997</v>
@@ -2959,29 +2958,29 @@
       <c r="D62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" ref="F62:F66" si="2">F61+$C$61</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <f>F61</f>
         <v>1.4100000000000001</v>
       </c>
-      <c r="I62" s="9">
-        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H62,B1:B52, "&lt;="&amp;H63)</f>
-        <v>7</v>
-      </c>
-      <c r="J62" s="17">
-        <f>I62/(52*$C$62)</f>
-        <v>3.6982248520710068E-2</v>
-      </c>
-      <c r="K62" s="11">
+      <c r="I62" s="14">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H62,$B$1:$B$52, "&lt;"&amp;H63)</f>
+        <v>6</v>
+      </c>
+      <c r="J62" s="11">
+        <f>I62/($C$62)</f>
+        <v>1.6483516483516485</v>
+      </c>
+      <c r="K62" s="13">
         <f>(H62+H63)/2</f>
         <v>1.4450000000000003</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="11">
         <f xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K62-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>1.7673656960699256</v>
+        <v>1.8756574455303077</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -2989,260 +2988,260 @@
       <c r="N62" t="s">
         <v>1</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="2">
         <f t="shared" ref="O62" si="3">$A$54-M62*$C$54</f>
-        <v>1.3705242931106048</v>
-      </c>
-      <c r="P62" s="3">
+        <v>1.3349838143707973</v>
+      </c>
+      <c r="P62" s="2">
         <f t="shared" ref="P62:P63" si="4">$A$54+M62*$C$54</f>
-        <v>1.7760141684278574</v>
+        <v>1.8115546471676649</v>
       </c>
       <c r="Q62">
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;$O62, $B$1:$B$52, "&lt;="&amp;$P62)</f>
-        <v>45</v>
-      </c>
-      <c r="R62" s="5">
+        <v>51</v>
+      </c>
+      <c r="R62" s="4">
         <f>Q62/52</f>
-        <v>0.86538461538461542</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="F63" s="3">
+      <c r="A63" s="2"/>
+      <c r="F63" s="2">
         <f t="shared" si="2"/>
         <v>1.5500000000000003</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="7">
         <f>F62</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="17"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="11"/>
       <c r="M63">
         <v>3</v>
       </c>
       <c r="N63" t="s">
         <v>2</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="2">
         <f>$A$54-M63*$C$54</f>
-        <v>1.2691518242812918</v>
-      </c>
-      <c r="P63" s="3">
+        <v>1.2158411061715806</v>
+      </c>
+      <c r="P63" s="2">
         <f t="shared" si="4"/>
-        <v>1.8773866372571704</v>
+        <v>1.9306973553668816</v>
       </c>
       <c r="Q63">
         <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;$O63, $B$1:$B$52, "&lt;="&amp;$P63)</f>
         <v>52</v>
       </c>
-      <c r="R63" s="5">
+      <c r="R63" s="4">
         <f>Q63/52</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <f>SQRT(52)</f>
         <v>7.2111025509279782</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f t="shared" si="2"/>
         <v>1.6200000000000003</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <f>F62</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="I64" s="9">
-        <f t="shared" ref="I64" si="5">COUNTIFS($B$1:$B$52, "&gt;="&amp;H64,B3:B54, "&lt;="&amp;H65)</f>
-        <v>18</v>
-      </c>
-      <c r="J64" s="17">
-        <f t="shared" ref="J64" si="6">I64/(52*$C$62)</f>
-        <v>9.5097210481825886E-2</v>
-      </c>
-      <c r="K64" s="11">
+      <c r="I64" s="14">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H64,$B$1:$B$52, "&lt;"&amp;H65)</f>
+        <v>8</v>
+      </c>
+      <c r="J64" s="11">
+        <f>I64/($C$62)</f>
+        <v>2.197802197802198</v>
+      </c>
+      <c r="K64" s="13">
         <f>(H64+H65)/2</f>
         <v>1.5150000000000001</v>
       </c>
-      <c r="L64" s="17">
-        <f t="shared" ref="L64" si="7" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K64-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>3.3361444323866944</v>
+      <c r="L64" s="11">
+        <f t="shared" ref="L64" si="5" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K64-$A$54)^2/(2*$C$54*$C$54)))</f>
+        <v>2.9710029015386974</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="F65" s="3">
+      <c r="A65" s="2"/>
+      <c r="F65" s="2">
         <f t="shared" si="2"/>
         <v>1.6900000000000004</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="7">
         <f>F63</f>
         <v>1.5500000000000003</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="17"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="F66" s="3">
+      <c r="A66" s="2"/>
+      <c r="F66" s="2">
         <f t="shared" si="2"/>
         <v>1.7600000000000005</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <f>F63</f>
         <v>1.5500000000000003</v>
       </c>
-      <c r="I66" s="9">
-        <f t="shared" ref="I66" si="8">COUNTIFS($B$1:$B$52, "&gt;="&amp;H66,B5:B56, "&lt;="&amp;H67)</f>
-        <v>17</v>
-      </c>
-      <c r="J66" s="17">
-        <f t="shared" ref="J66" si="9">I66/(52*$C$62)</f>
-        <v>8.9814032121724438E-2</v>
-      </c>
-      <c r="K66" s="11">
+      <c r="I66" s="14">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H66,$B$1:$B$52, "&lt;"&amp;H67)</f>
+        <v>9</v>
+      </c>
+      <c r="J66" s="11">
+        <f>I66/($C$62)</f>
+        <v>2.4725274725274726</v>
+      </c>
+      <c r="K66" s="13">
         <f>(H66+H67)/2</f>
         <v>1.5850000000000004</v>
       </c>
-      <c r="L66" s="17">
-        <f t="shared" ref="L66" si="10" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K66-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>3.909148999761344</v>
+      <c r="L66" s="11">
+        <f t="shared" ref="L66" si="6" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K66-$A$54)^2/(2*$C$54*$C$54)))</f>
+        <v>3.3322494112921013</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="F67" s="3">
+      <c r="A67" s="2"/>
+      <c r="F67" s="2">
         <f>A60</f>
         <v>1.83</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="7">
         <f>F64</f>
         <v>1.6200000000000003</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="17"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="H68" s="7">
+      <c r="A68" s="2"/>
+      <c r="H68" s="6">
         <f>F64</f>
         <v>1.6200000000000003</v>
       </c>
-      <c r="I68" s="9">
-        <f t="shared" ref="I68" si="11">COUNTIFS($B$1:$B$52, "&gt;="&amp;H68,B7:B58, "&lt;="&amp;H69)</f>
+      <c r="I68" s="14">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H68,$B$1:$B$52, "&lt;"&amp;H69)</f>
         <v>18</v>
       </c>
-      <c r="J68" s="17">
-        <f t="shared" ref="J68" si="12">I68/(52*$C$62)</f>
-        <v>9.5097210481825886E-2</v>
-      </c>
-      <c r="K68" s="11">
-        <f t="shared" ref="K68" si="13">(H68+H69)/2</f>
+      <c r="J68" s="11">
+        <f>I68/($C$62)</f>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="K68" s="13">
+        <f t="shared" ref="K68" si="7">(H68+H69)/2</f>
         <v>1.6550000000000002</v>
       </c>
-      <c r="L68" s="17">
-        <f t="shared" ref="L68" si="14" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K68-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>2.8434039383406597</v>
+      <c r="L68" s="11">
+        <f t="shared" ref="L68" si="8" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K68-$A$54)^2/(2*$C$54*$C$54)))</f>
+        <v>2.646407978718007</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="H69" s="8">
+      <c r="A69" s="2"/>
+      <c r="H69" s="7">
         <f>F65</f>
         <v>1.6900000000000004</v>
       </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="17"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="H70" s="7">
+      <c r="A70" s="2"/>
+      <c r="H70" s="6">
         <f>F65</f>
         <v>1.6900000000000004</v>
       </c>
-      <c r="I70" s="9">
-        <f t="shared" ref="I70" si="15">COUNTIFS($B$1:$B$52, "&gt;="&amp;H70,B9:B60, "&lt;="&amp;H71)</f>
-        <v>5</v>
-      </c>
-      <c r="J70" s="17">
-        <f t="shared" ref="J70" si="16">I70/(52*$C$62)</f>
-        <v>2.6415891800507189E-2</v>
-      </c>
-      <c r="K70" s="11">
-        <f t="shared" ref="K70" si="17">(H70+H71)/2</f>
+      <c r="I70" s="14">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H70,$B$1:$B$52, "&lt;"&amp;H71)</f>
+        <v>3</v>
+      </c>
+      <c r="J70" s="11">
+        <f>I70/($C$62)</f>
+        <v>0.82417582417582425</v>
+      </c>
+      <c r="K70" s="13">
+        <f t="shared" ref="K70" si="9">(H70+H71)/2</f>
         <v>1.7250000000000005</v>
       </c>
-      <c r="L70" s="17">
-        <f t="shared" ref="L70" si="18" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K70-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>1.2838487238011496</v>
+      <c r="L70" s="11">
+        <f t="shared" ref="L70" si="10" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K70-$A$54)^2/(2*$C$54*$C$54)))</f>
+        <v>1.488198861451429</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3"/>
-      <c r="H71" s="8">
+      <c r="A71" s="2"/>
+      <c r="H71" s="7">
         <f>F66</f>
         <v>1.7600000000000005</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="17"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
+      <c r="A72" s="2"/>
       <c r="B72">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="C72">
         <v>0.01</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="6">
         <f>F66</f>
         <v>1.7600000000000005</v>
       </c>
-      <c r="I72" s="9">
-        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H72,B1:B52, "&lt;="&amp;H73)</f>
-        <v>3</v>
-      </c>
-      <c r="J72" s="17">
-        <f>I72/(52*$C$62)</f>
-        <v>1.5849535080304313E-2</v>
-      </c>
-      <c r="K72" s="11">
+      <c r="I72" s="14">
+        <f>COUNTIFS($B$1:$B$52, "&gt;="&amp;H72,$B$1:$B$52, "&lt;"&amp;H73)</f>
+        <v>2</v>
+      </c>
+      <c r="J72" s="11">
+        <f>I72/($C$62)</f>
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="K72" s="13">
         <f>(H72+H73)/2</f>
         <v>1.7950000000000004</v>
       </c>
-      <c r="L72" s="17">
-        <f t="shared" ref="L72" si="19" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K72-$A$54)^2/(2*$C$54*$C$54)))</f>
-        <v>0.35983889420544762</v>
+      <c r="L72" s="11">
+        <f t="shared" ref="L72" si="11" xml:space="preserve"> (1/($C$54*SQRT(2*PI()))) * EXP(-((K72-$A$54)^2/(2*$C$54*$C$54)))</f>
+        <v>0.59258412394809812</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="H73" s="8">
+      <c r="A73" s="2"/>
+      <c r="H73" s="7">
         <f>F67</f>
         <v>1.83</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="18"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="16"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
+      <c r="A75" s="2"/>
       <c r="B75">
         <f>SQRT(B72*B72+2/3*2/3*C72*C72)</f>
         <v>3.4647430560496753E-2</v>
@@ -3253,37 +3252,21 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4">
         <f>A54</f>
         <v>1.5732692307692311</v>
       </c>
       <c r="J76">
         <f>SUM(J60:J73)</f>
-        <v>0.39623837700760783</v>
+        <v>14.010989010989013</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
+      <c r="A77" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="K72:K73"/>
@@ -3296,6 +3279,22 @@
     <mergeCell ref="J70:J71"/>
     <mergeCell ref="K70:K71"/>
     <mergeCell ref="L70:L71"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3312,7 +3311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
